--- a/xlsx/国家人口密度列表_intext.xlsx
+++ b/xlsx/国家人口密度列表_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国家人口密度列表</t>
+    <t>世界政区索引</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国家人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政體列表</t>
+    <t>各国政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E5%8D%80%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國家地區代碼</t>
+    <t>国家地区代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%99%86%E5%9C%B0%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國旗列表</t>
+    <t>国旗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%AD%8C%E5%88%97%E8%A1%A8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國城市列表</t>
+    <t>各国城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E5%AD%98%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>殘存國家</t>
+    <t>残存国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>島嶼國家列表</t>
+    <t>岛屿国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E5%A4%9A%E4%B8%AA%E5%9B%BD%E5%AE%B6%E7%9A%84%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>單位</t>
+    <t>单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9B%BD</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -473,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -677,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>法國本土</t>
+    <t>法国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -875,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -935,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -971,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -995,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1073,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -1169,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%9C%B0</t>
   </si>
   <si>
-    <t>陸地</t>
+    <t>陆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1235,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1295,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -1325,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1415,19 +1415,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1439,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1493,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -1505,19 +1505,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1547,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1559,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1631,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
@@ -1673,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1721,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -1739,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -1823,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -1859,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
@@ -1877,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -1907,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -1937,13 +1937,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -1973,13 +1973,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -2027,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
+    <t>地球科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9C%9F%E5%9C%B0%E4%BD%BF%E7%94%A8%E6%83%85%E5%86%B5%E5%88%97%E8%A1%A8</t>
@@ -2057,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E9%BB%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低點列表</t>
+    <t>各国最低点列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B5%B7%E5%B2%B8%E7%BA%BF%E9%95%BF%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -2087,13 +2087,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%84%B0%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鄰國列表</t>
+    <t>各国邻国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國時區列表</t>
+    <t>各国时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -2105,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>環境可持續指數</t>
+    <t>环境可持续指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
@@ -2141,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國世界遺產數列表</t>
+    <t>各国世界遗产数列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Happy_Planet_Index</t>
@@ -2153,19 +2153,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%BE%B2%E6%A5%AD%E7%94%A2%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國農業產值列表</t>
+    <t>各国农业产值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%B0%B7%E7%89%A9%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2207,13 +2207,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%83%BD%E6%BA%90%E7%94%9F%E7%94%A2%E5%8F%8A%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國能源生產及消耗列表</t>
+    <t>各国能源生产及消耗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AF%8F%E5%B9%B4%E4%BA%BA%E5%9D%87%E8%83%BD%E9%87%8F%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
@@ -2225,13 +2225,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9B%BB%E5%8A%9B%E6%B6%88%E8%80%97%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家電力消耗排名列表</t>
+    <t>国家电力消耗排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%99%BC%E9%9B%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國發電量列表</t>
+    <t>各国发电量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%9F%B3%E6%B2%B9</t>
@@ -2339,7 +2339,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%9F%BD%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國矽產量列表</t>
+    <t>各国矽产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%BB%E7%9F%B3</t>
@@ -2381,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8B%B0%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鋰產量列表</t>
+    <t>各国锂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%94%8C%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2393,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8A%80%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國銀產量列表</t>
+    <t>各国银产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%BB%84%E9%87%91%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2405,13 +2405,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%89%91%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鉑產量列表</t>
+    <t>各国铂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8E%82%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鎂產量列表</t>
+    <t>各国镁产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%93%8B%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2435,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%85%AC%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -2483,37 +2483,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家鐵路里程列表</t>
+    <t>国家铁路里程列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%88%A9%E7%94%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鐵路利用列表</t>
+    <t>各国铁路利用列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>高速鐵路線列表</t>
+    <t>高速铁路线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E5%9C%B0%E9%90%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市地鐵列表</t>
+    <t>世界各城市地铁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A%E5%B9%B4%E4%B9%98%E5%AE%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界城市軌道交通年乘客量列表</t>
+    <t>世界城市轨道交通年乘客量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E8%B7%AF%E9%9D%A2%E9%9B%BB%E8%BB%8A%E8%88%87%E8%BC%95%E8%BB%8C%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市路面電車與輕軌系統列表</t>
+    <t>世界各城市路面电车与轻轨系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B0%B4%E8%B7%AF%E6%80%BB%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -2525,7 +2525,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%95%86%E8%88%B9%E5%99%B8%E4%BD%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國商船噸位列表</t>
+    <t>各国商船吨位列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0%E6%9C%BA%E5%9C%BA%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2543,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BA%E5%AE%9A%E7%94%B5%E8%AF%9D%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -2561,7 +2561,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F%E6%99%AE%E5%8F%8A%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國智慧型手機普及率列表</t>
+    <t>各国智慧型手机普及率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%92%E8%81%94%E7%BD%91%E4%BD%BF%E7%94%A8%E8%80%85%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -2597,7 +2597,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1900%E5%B9%B4%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -2609,7 +2609,7 @@
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>1950年國家人口列表</t>
+    <t>1950年国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -2621,25 +2621,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86%E8%88%87%E5%9C%8B%E6%B0%91%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>智商與國民財富</t>
+    <t>智商与国民财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>各國諾貝爾獎得主人數</t>
+    <t>各国诺贝尔奖得主人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>衛生</t>
+    <t>卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E8%BA%AB%E9%AB%98</t>
   </si>
   <si>
-    <t>人類身高</t>
+    <t>人类身高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E6%91%84%E5%85%A5%E9%A3%9F%E7%89%A9%E7%83%AD%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2663,7 +2663,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E6%88%90%E6%9E%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國醫療衛生成果列表</t>
+    <t>各国医疗卫生成果列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -2705,7 +2705,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -2735,7 +2735,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
@@ -2747,7 +2747,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%88%87%E7%8D%A8%E8%A3%81%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>民主與獨裁指數</t>
+    <t>民主与独裁指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E8%B4%BF%E6%8C%87%E6%95%B0</t>
@@ -2759,7 +2759,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>貪污感知指數</t>
+    <t>贪污感知指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%B4%A5%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -2777,13 +2777,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AF%A6%E5%8A%9B%E7%B6%9C%E5%90%88%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>國家實力綜合指數</t>
+    <t>国家实力综合指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8A%9B</t>
   </si>
   <si>
-    <t>軍事力</t>
+    <t>军事力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F%E5%88%97%E8%A1%A8</t>
@@ -2795,7 +2795,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A%E5%90%84%E5%9C%8B%E5%85%B5%E5%8A%9B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國維和部隊各國兵力列表</t>
+    <t>联合国维和部队各国兵力列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%A2%84%E7%AE%97%E5%88%97%E8%A1%A8</t>
@@ -2807,7 +2807,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%81%E6%9C%89%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>核武器擁有國列表</t>
+    <t>核武器拥有国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AD%A6%E5%AF%9F%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2819,7 +2819,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>沒有軍隊的國家列表</t>
+    <t>没有军队的国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E8%A3%85%E5%A4%87%E6%B0%B4%E5%B9%B3</t>
@@ -2867,25 +2867,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國死刑列表</t>
+    <t>各国死刑列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球恐怖主義指數</t>
+    <t>全球恐怖主义指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -2945,7 +2945,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%84%B2%E8%93%84%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国儲蓄率列表</t>
+    <t>各国储蓄率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -2957,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%AB%B6%E7%88%AD%E5%8A%9B%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球競爭力報告</t>
+    <t>全球竞争力报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%A7%E6%9D%83%E6%8C%87%E6%95%B0</t>
@@ -2993,7 +2993,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低工資列表</t>
+    <t>各国最低工资列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%88%BF%E4%BB%B7%E6%94%B6%E5%85%A5%E6%AF%94%E5%88%97%E8%A1%A8</t>
@@ -3005,7 +3005,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A0%94%E7%A9%B6%E4%B8%8E%E5%BC%80%E5%8F%91%E7%BB%8F%E8%B4%B9%E5%88%97%E8%A1%A8</t>
@@ -3065,25 +3065,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BF%A1%E7%94%A8%E8%A9%95%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國信用評級列表</t>
+    <t>各国信用评级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%A4%96%E5%8C%AF%E5%84%B2%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國外匯儲備列表</t>
+    <t>各国外汇储备列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%84%B2%E5%82%99</t>
   </si>
   <si>
-    <t>黃金儲備</t>
+    <t>黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6%E7%9A%84%E5%A4%96%E9%83%A8%E8%B3%87%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>主權國家的外部資產列表</t>
+    <t>主权国家的外部资产列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_countries_by_sovereign_wealth_funds</t>
@@ -3101,7 +3101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C%E6%9C%80%E5%84%AA%E6%83%A0%E5%88%A9%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国商业银行最優惠利率列表</t>
+    <t>各国商业银行最优惠利率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -3155,7 +3155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9B%BA%E5%AE%9A%E6%8A%95%E8%B3%87%E7%B8%BD%E9%A1%8D%E8%88%87GDP%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國固定投資總額與GDP比例列表</t>
+    <t>各国固定投资总额与GDP比例列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
@@ -3179,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E4%B9%B3%E9%A1%9E%E6%B6%88%E8%B2%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國人均乳類消費量列表</t>
+    <t>各国人均乳类消费量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E7%83%9F%E8%8D%89%E6%B6%88%E8%B4%B9%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -3215,7 +3215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E4%B8%BB%E8%BE%A6%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>奧林匹克運動會主辦城市列表</t>
+    <t>奥林匹克运动会主办城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E5%A5%96%E7%89%8C%E7%BB%9F%E8%AE%A1</t>
@@ -3227,19 +3227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際足總世界排名</t>
+    <t>国际足总世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃主辦國</t>
+    <t>世界杯主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
@@ -3251,7 +3251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際棒球總會世界排名</t>
+    <t>国际棒球总会世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
@@ -3275,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%80%A7%E5%88%A5%E5%B7%AE%E8%B7%9D%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球性別差距報告</t>
+    <t>全球性别差距报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%85%E6%B8%B8%E6%8E%92%E5%90%8D</t>
@@ -3287,7 +3287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%BF%AB%E6%A8%82%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>世界快樂報告</t>
+    <t>世界快乐报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%B9%B8%E7%A6%8F%E6%80%BB%E5%80%BC</t>
@@ -3299,13 +3299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%BD%E7%94%9F%E6%B4%BB%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>美好生活指數</t>
+    <t>美好生活指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E8%89%AF%E5%9C%8B%E5%AE%B6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>優良國家指數</t>
+    <t>优良国家指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
@@ -3323,7 +3323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%81%B2%E8%AD%BD%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>各國聲譽排名</t>
+    <t>各国声誉排名</t>
   </si>
 </sst>
 </file>

--- a/xlsx/国家人口密度列表_intext.xlsx
+++ b/xlsx/国家人口密度列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界政區索引</t>
   </si>
   <si>
-    <t>政策_政策_美國_国家人口密度列表</t>
+    <t>体育运动_体育运动_伊朗_国家人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
